--- a/wikiimages/Puzzle-13.xlsx
+++ b/wikiimages/Puzzle-13.xlsx
@@ -4,29 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet6" sheetId="7" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="9" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="PIECES">Sheet1!$N$2:$N$14</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId7"/>
-    <pivotCache cacheId="11" r:id="rId8"/>
+    <pivotCache cacheId="9" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="35">
   <si>
     <t>PIECES</t>
   </si>
@@ -209,65 +206,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Dhvnish" refreshedDate="42365.559746643521" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="64">
-  <cacheSource type="consolidation">
-    <consolidation autoPage="0">
-      <rangeSets count="1">
-        <rangeSet ref="B3:J11" sheet="Sheet1"/>
-      </rangeSets>
-    </consolidation>
-  </cacheSource>
-  <cacheFields count="3">
-    <cacheField name="Row" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="7" count="8">
-        <n v="0"/>
-        <n v="1"/>
-        <n v="2"/>
-        <n v="3"/>
-        <n v="4"/>
-        <n v="5"/>
-        <n v="6"/>
-        <n v="7"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Column" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="7" count="8">
-        <n v="0"/>
-        <n v="1"/>
-        <n v="2"/>
-        <n v="3"/>
-        <n v="4"/>
-        <n v="5"/>
-        <n v="6"/>
-        <n v="7"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Value" numFmtId="0">
-      <sharedItems containsBlank="1" count="11">
-        <s v="black_rook"/>
-        <m/>
-        <s v="black_queen"/>
-        <s v="black_king"/>
-        <s v="black_pawn"/>
-        <s v="black_bishop"/>
-        <s v="white_knight"/>
-        <s v="white_queen"/>
-        <s v="white_pawn"/>
-        <s v="white_rook"/>
-        <s v="white_king"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Dhvnish" refreshedDate="42373.657892476855" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="64">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jyothi" refreshedDate="42374.89592638889" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="64">
   <cacheSource type="consolidation">
     <consolidation autoPage="0">
       <rangeSets count="1">
@@ -341,331 +280,6 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="6"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="6"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="7"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="6"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="7"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="1"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="2"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="5"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="6"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="7"/>
-    <x v="1"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="64">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
     <x v="2"/>
   </r>
   <r>
@@ -796,7 +410,7 @@
   <r>
     <x v="3"/>
     <x v="4"/>
-    <x v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="3"/>
@@ -977,57 +591,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="3">
-    <pivotField showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Value" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="3">
     <pivotField showAll="0">
@@ -1086,26 +650,8 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="X"/>
-    <tableColumn id="2" name="Y"/>
-    <tableColumn id="3" name="PIECE"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C65" totalsRowShown="0">
-  <autoFilter ref="A1:C65">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="3">
-    <tableColumn id="1" name="X"/>
-    <tableColumn id="2" name="Y"/>
+    <tableColumn id="1" name="Y"/>
+    <tableColumn id="2" name="X"/>
     <tableColumn id="3" name="PIECE"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1401,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection sqref="A1:C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,10 +958,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
       </c>
       <c r="C1" t="s">
         <v>30</v>
@@ -1440,34 +986,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
         <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1478,12 +1021,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
       <c r="B8">
         <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1494,7 +1040,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1516,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1538,7 +1084,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1565,7 +1111,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1595,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1606,12 +1152,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21">
         <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1638,15 +1187,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25">
         <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1673,23 +1219,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
       <c r="B30">
         <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1708,15 +1254,18 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
       <c r="B33">
         <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1743,15 +1292,18 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
       <c r="B37">
         <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1789,16 +1341,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-      <c r="C42" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -1808,12 +1357,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
       <c r="B44">
         <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1856,13 +1408,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>6</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -1875,15 +1430,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6</v>
       </c>
       <c r="B52">
         <v>2</v>
-      </c>
-      <c r="C52" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1946,12 +1498,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>7</v>
       </c>
       <c r="B59">
         <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -2039,7 +1594,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2049,665 +1604,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C65"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:C64"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>3</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>3</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>3</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>3</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>3</v>
-      </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>3</v>
-      </c>
-      <c r="B31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>3</v>
-      </c>
-      <c r="B32">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>3</v>
-      </c>
-      <c r="B33">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>4</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>4</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>4</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>4</v>
-      </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>4</v>
-      </c>
-      <c r="B38">
-        <v>4</v>
-      </c>
-      <c r="C38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>4</v>
-      </c>
-      <c r="B39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>4</v>
-      </c>
-      <c r="B40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>4</v>
-      </c>
-      <c r="B41">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>5</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>5</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>5</v>
-      </c>
-      <c r="B44">
-        <v>2</v>
-      </c>
-      <c r="C44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>5</v>
-      </c>
-      <c r="B45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>5</v>
-      </c>
-      <c r="B46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>5</v>
-      </c>
-      <c r="B47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>5</v>
-      </c>
-      <c r="B48">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>5</v>
-      </c>
-      <c r="B49">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>6</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>6</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>6</v>
-      </c>
-      <c r="B52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>6</v>
-      </c>
-      <c r="B53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>6</v>
-      </c>
-      <c r="B54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>6</v>
-      </c>
-      <c r="B55">
-        <v>5</v>
-      </c>
-      <c r="C55" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>6</v>
-      </c>
-      <c r="B56">
-        <v>6</v>
-      </c>
-      <c r="C56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>6</v>
-      </c>
-      <c r="B57">
-        <v>7</v>
-      </c>
-      <c r="C57" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>7</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>7</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>7</v>
-      </c>
-      <c r="B60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>7</v>
-      </c>
-      <c r="B61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>7</v>
-      </c>
-      <c r="B62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>7</v>
-      </c>
-      <c r="B63">
-        <v>5</v>
-      </c>
-      <c r="C63" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>7</v>
-      </c>
-      <c r="B64">
-        <v>6</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>7</v>
-      </c>
-      <c r="B65">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="9" width="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2848,7 +1748,9 @@
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="1" t="s">
         <v>4</v>
@@ -3015,7 +1917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G3"/>
   <sheetViews>
